--- a/scripts/api/excel-templates/acm-reports/acmYearTemplate.xlsx
+++ b/scripts/api/excel-templates/acm-reports/acmYearTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="7995" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="7995" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <r>
       <t>Цей файл являє собою інструмент для розрахунку викидів N</t>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">Цей файл призначений для розрахунку викидів від однієї точки викидів. При наявності декількох точок викидів (та відповідних точок вимірювання) рекомендується скопіювати цей файл для кожної точки окремо. </t>
-  </si>
-  <si>
-    <t>  Аркуш "Дані СНВВ"</t>
   </si>
   <si>
     <t xml:space="preserve">призначений для введення погодинних даних, отриманих за допомогою системи неперервних вимірювань (СНВВ). </t>
@@ -150,9 +147,6 @@
   </si>
   <si>
     <t>оцінка стандартного відхилення показника концентрації для періоду, за який розраховано середнє арифметичне значення</t>
-  </si>
-  <si>
-    <t>Аркуш "Результати"</t>
   </si>
   <si>
     <t>містить результати розрахунку викидів на ключових значень, які включаються у звіт оператора</t>
@@ -348,18 +342,6 @@
     <t>Значення з урахуванням замінних даних</t>
   </si>
   <si>
-    <t>NCSG - N2O concentration in stack gas</t>
-  </si>
-  <si>
-    <t>NCSG_State</t>
-  </si>
-  <si>
-    <t>VSG - volume of stack gas</t>
-  </si>
-  <si>
-    <t>VSG_State</t>
-  </si>
-  <si>
     <t>Сума всіх значень</t>
   </si>
   <si>
@@ -1338,20 +1320,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="14">
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="#,##0.000"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="d/m"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0.00000"/>
-    <numFmt numFmtId="182" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="m/d/yyyy\ h:mm"/>
-    <numFmt numFmtId="185" formatCode="yyyy\-mm\-dd\ hh:mm"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="d/m"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="172" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="174" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -3436,13 +3418,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -3583,7 +3565,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="149"/>
@@ -3603,7 +3585,7 @@
     <xf numFmtId="3" fontId="7" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="7" applyAlignment="1">
@@ -3640,7 +3622,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3664,10 +3646,10 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="15" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="15" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="5" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3685,7 +3667,7 @@
     <xf numFmtId="1" fontId="9" fillId="19" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="15" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="15" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="20" borderId="23" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3694,13 +3676,13 @@
     <xf numFmtId="1" fontId="9" fillId="21" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="22" borderId="25" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="22" borderId="25" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="26" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="24" borderId="27" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="24" borderId="27" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="28" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="5" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3711,9 +3693,9 @@
     <xf numFmtId="0" fontId="13" fillId="26" borderId="29" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="26" borderId="29" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="13" fillId="26" borderId="29" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="29" xfId="149" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="13" fillId="26" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="13" fillId="26" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="30" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3732,35 +3714,35 @@
     <xf numFmtId="0" fontId="15" fillId="30" borderId="33" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="23" borderId="26" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="23" borderId="26" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="34" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="24" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="25" fillId="18" borderId="21" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="18" borderId="21" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="27" borderId="30" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="27" borderId="30" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="22" borderId="25" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="28" borderId="31" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="15" borderId="18" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="22" borderId="25" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="28" borderId="31" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="15" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="16" borderId="19" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="16" borderId="19" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="32" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="26" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="15" fillId="26" borderId="29" xfId="149" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="15" fillId="26" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="15" fillId="26" borderId="29" xfId="149" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="15" fillId="35" borderId="38" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="15" fillId="35" borderId="38" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3773,7 +3755,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="9" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="9" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="149" applyBorder="1"/>
@@ -3817,7 +3799,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="48" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="48" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="48" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3832,7 +3814,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="51" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="51" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="51" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3853,26 +3835,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="36" borderId="53" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="37" borderId="54" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="25" fillId="25" borderId="28" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="25" fillId="25" borderId="28" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="25" fillId="25" borderId="28" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="38" borderId="55" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="39" borderId="56" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="40" borderId="57" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="41" borderId="58" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="42" borderId="59" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="25" fillId="25" borderId="28" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="25" fillId="43" borderId="60" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="25" borderId="28" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="61" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="25" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="48" borderId="65" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="61" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="25" fillId="45" borderId="62" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="49" borderId="66" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="69" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="53" borderId="70" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="62" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="54" borderId="71" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="55" borderId="72" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="25" fillId="18" borderId="21" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="56" borderId="73" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="66" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="57" borderId="74" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="31" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="61" borderId="78" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="62" borderId="79" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="25" fillId="31" borderId="34" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="25" fillId="9" borderId="12" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="149" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="25" borderId="28" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="28" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="43" borderId="60" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="45" borderId="62" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="46" borderId="63" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="46" borderId="63" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
       <extLst>
         <ext uri="smNativeData">
           <pm:cellMargin xmlns:pm="smNativeData" id="1647418215" l="0" r="0" t="0" b="0" textRotation="3"/>
@@ -3880,74 +3925,19 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="45" borderId="62" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="47" borderId="64" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
       <extLst>
         <ext uri="smNativeData">
           <pm:cellMargin xmlns:pm="smNativeData" id="1647418215" l="0" r="0" t="0" b="0" textRotation="3"/>
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="25" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="65" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="49" borderId="66" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="52" borderId="69" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="53" borderId="70" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="62" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="54" borderId="71" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="55" borderId="72" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="25" fillId="18" borderId="21" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="56" borderId="73" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="66" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="57" borderId="74" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="17" fillId="31" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="58" borderId="75" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="59" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="60" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="61" borderId="78" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="62" borderId="79" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="25" fillId="31" borderId="34" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="25" fillId="9" borderId="12" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -4044,19 +4034,19 @@
     <xf numFmtId="0" fontId="9" fillId="78" borderId="98" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="27" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="27" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="22" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="22" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="28" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="28" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="27" borderId="30" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="27" borderId="30" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="17" borderId="20" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="17" borderId="20" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="25" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4088,9 +4078,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="149" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="151">
@@ -5694,8 +5681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH136"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:L5"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5712,85 +5699,83 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
     </row>
     <row r="3" spans="1:12" ht="39" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="165"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="167"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="64">
         <v>2</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="168" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="170"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="172"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="27.75" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="171" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="172"/>
-      <c r="L5" s="173"/>
+      <c r="B5" s="173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="175"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="157"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="94"/>
       <c r="C6" s="94"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="4"/>
@@ -5799,62 +5784,62 @@
       <c r="D7" s="116"/>
       <c r="E7" s="116"/>
       <c r="F7" s="116"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="176"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="174" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="176"/>
+      <c r="K9" s="176"/>
+      <c r="L9" s="176"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="176"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="12.75">
       <c r="A11" s="5"/>
@@ -5874,183 +5859,181 @@
       <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="175" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="176"/>
-      <c r="D12" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="179"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="179" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="181"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="180"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="186"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="185" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="186"/>
-      <c r="L14" s="187"/>
+      <c r="B14" s="187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="189"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="188" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="188"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="188"/>
-      <c r="K15" s="188"/>
-      <c r="L15" s="188"/>
+      <c r="B15" s="190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="190"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="B16" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
+      <c r="B16" s="164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="189"/>
-      <c r="L17" s="189"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="189" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
-      <c r="J18" s="189"/>
-      <c r="K18" s="189"/>
-      <c r="L18" s="189"/>
+      <c r="D18" s="191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="191"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="191"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="191"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="189" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="189"/>
-      <c r="F19" s="189"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="189"/>
-      <c r="J19" s="189"/>
-      <c r="K19" s="189"/>
-      <c r="L19" s="189"/>
+      <c r="D19" s="191" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="191"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="189" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="189"/>
-      <c r="F20" s="189"/>
-      <c r="G20" s="189"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="189"/>
-      <c r="J20" s="189"/>
-      <c r="K20" s="189"/>
-      <c r="L20" s="189"/>
+      <c r="D20" s="191" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="191"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="191"/>
+      <c r="J20" s="191"/>
+      <c r="K20" s="191"/>
+      <c r="L20" s="191"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="189" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="189"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="189"/>
-      <c r="K21" s="189"/>
-      <c r="L21" s="189"/>
+      <c r="D21" s="191" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="191"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="152">
+      <c r="C22" s="144">
         <v>1</v>
       </c>
-      <c r="D22" s="190" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="190"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="190"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="190"/>
-      <c r="K22" s="190"/>
-      <c r="L22" s="190"/>
+      <c r="D22" s="192" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="192"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="192"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="192"/>
+      <c r="K22" s="192"/>
+      <c r="L22" s="192"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="12.75">
       <c r="A23" s="5"/>
@@ -6831,10 +6814,6 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="B4:C4" location="Дані_СНВВ!A1" display="  Аркуш &quot;Дані СНВВ&quot;"/>
-    <hyperlink ref="B12:C12" location="Результати!A1" display="Аркуш &quot;Результати&quot;"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0"/>
   <drawing r:id="rId1"/>
@@ -6853,11 +6832,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6865,7 +6844,7 @@
     <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="3.140625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
@@ -6884,102 +6863,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="53.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="158" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="D1" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="E1" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="F1" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="132" t="s">
+      <c r="H1" s="160" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="129" t="s">
+      <c r="J1" s="160" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="129" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="32" t="s">
+      <c r="N1" s="194"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="191" t="s">
+      <c r="Q1" s="197"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="192"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="194" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="151" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2" spans="1:19" ht="57" customHeight="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="141"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="134"/>
       <c r="L2" s="10"/>
       <c r="M2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>32</v>
-      </c>
       <c r="P2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="150"/>
+      <c r="S2" s="143"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="120"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="119" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="119" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>36</v>
-      </c>
+      <c r="A3" s="119"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="47"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
@@ -6988,7 +6959,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="41"/>
       <c r="N3" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O3" s="49">
         <f>SUM(O6:O15550)</f>
@@ -6996,47 +6967,47 @@
       </c>
       <c r="P3" s="37"/>
       <c r="Q3" s="48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="R3" s="49">
         <f>SUM(R6:R15550)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="160">
+      <c r="S3" s="152">
         <f>SUM(S6:S15550)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="53.25" customHeight="1">
-      <c r="A4" s="197" t="s">
-        <v>38</v>
+      <c r="A4" s="199" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="121">
+        <v>33</v>
+      </c>
+      <c r="C4" s="120">
         <v>0.93520000000000003</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="158">
+      <c r="D4" s="121"/>
+      <c r="E4" s="150">
         <v>1.1951000000000001</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="142" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="143" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="128"/>
-      <c r="K4" s="144" t="s">
-        <v>42</v>
+      <c r="F4" s="122"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="126"/>
+      <c r="K4" s="137" t="s">
+        <v>36</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="42"/>
       <c r="N4" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O4" s="71">
         <f>COUNTIF(O6:O15605,"Вставте замінне значення!")</f>
@@ -7044,7 +7015,7 @@
       </c>
       <c r="P4" s="37"/>
       <c r="Q4" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R4" s="71">
         <f>COUNTIF(R6:R15605,"Вставте замінне значення!")</f>
@@ -7053,31 +7024,31 @@
       <c r="S4" s="61"/>
     </row>
     <row r="5" spans="1:19" ht="30">
-      <c r="A5" s="198"/>
+      <c r="A5" s="200"/>
       <c r="B5" s="63" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C5" s="118">
         <v>0</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="159">
+      <c r="D5" s="123"/>
+      <c r="E5" s="151">
         <v>0</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="148">
+      <c r="F5" s="124"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="141">
         <f>SUM(I6)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="145"/>
-      <c r="K5" s="149">
+      <c r="J5" s="138"/>
+      <c r="K5" s="142">
         <f>COUNTIF(K6:K17229,"СНВВ не працює")</f>
         <v>0</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M5" s="38">
         <f>COUNT(M$6:M$15550)</f>
@@ -7109,7 +7080,7 @@
       <c r="A6" s="30">
         <v>2</v>
       </c>
-      <c r="B6" s="161">
+      <c r="B6" s="153">
         <v>44562.041666666657</v>
       </c>
       <c r="C6" s="29">
@@ -7172,7 +7143,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7228,7 +7199,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1647418215" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -7245,7 +7216,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8219,27 +8190,27 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="199" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
+        <v>40</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
       <c r="E2" s="55" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
       <c r="A3" s="57" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
@@ -8248,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
@@ -8257,10 +8228,10 @@
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1">
       <c r="A4" s="57" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -8269,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="72" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
@@ -8278,40 +8249,40 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="200" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
+        <v>50</v>
+      </c>
+      <c r="B5" s="202" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
       <c r="E5" s="74">
         <f>Data_CNBB!I5</f>
         <v>0</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G5" s="19"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
-      <c r="K5" s="209"/>
+      <c r="K5" s="154"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="201" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
+        <v>53</v>
+      </c>
+      <c r="B6" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
       <c r="E6" s="74">
         <f>Data_CNBB!$S$3/1000000000</f>
         <v>0</v>
       </c>
       <c r="F6" s="72" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G6" s="19"/>
       <c r="I6" s="21"/>
@@ -8320,19 +8291,19 @@
     </row>
     <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="201" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
+        <v>56</v>
+      </c>
+      <c r="B7" s="203" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
       <c r="E7" s="75">
         <f>E6*298</f>
         <v>0</v>
       </c>
       <c r="F7" s="72" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G7" s="19"/>
       <c r="I7" s="21"/>
@@ -8341,19 +8312,19 @@
     </row>
     <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="202" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
+        <v>59</v>
+      </c>
+      <c r="B8" s="204" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
       <c r="E8" s="76">
         <f>IFERROR(Data_CNBB!$S$3/1000000/E5, 0)</f>
         <v>0</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="23"/>
@@ -8377,7 +8348,7 @@
     <row r="10" spans="1:12" ht="24.75" customHeight="1">
       <c r="A10" s="83"/>
       <c r="B10" s="115" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C10" s="84"/>
       <c r="D10" s="84"/>
@@ -8435,38 +8406,38 @@
     <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="86"/>
       <c r="B16" s="92"/>
-      <c r="C16" s="203" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="204"/>
+      <c r="C16" s="205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="206"/>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" ht="18.75">
       <c r="A17" s="86"/>
       <c r="B17" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="203" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="204"/>
+        <v>64</v>
+      </c>
+      <c r="C17" s="205" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="205"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="206"/>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="18.75">
       <c r="A18" s="86"/>
       <c r="B18" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="203" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="204"/>
+        <v>66</v>
+      </c>
+      <c r="C18" s="205" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="206"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="14.25">
@@ -8491,23 +8462,23 @@
       <c r="A21" s="93">
         <v>2</v>
       </c>
-      <c r="B21" s="206" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="205" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="205"/>
+      <c r="B21" s="208" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="207" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="207"/>
       <c r="E21" s="78"/>
       <c r="F21" s="87"/>
     </row>
     <row r="22" spans="1:7" ht="29.25" customHeight="1">
       <c r="A22" s="89"/>
-      <c r="B22" s="206"/>
-      <c r="C22" s="207" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="207"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="209" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="209"/>
       <c r="E22" s="78"/>
       <c r="F22" s="87"/>
     </row>
@@ -8530,50 +8501,50 @@
     <row r="25" spans="1:7" ht="18.75">
       <c r="A25" s="89"/>
       <c r="B25" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="203" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="203"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="204"/>
+        <v>70</v>
+      </c>
+      <c r="C25" s="205" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="205"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="206"/>
     </row>
     <row r="26" spans="1:7" ht="18.75">
       <c r="A26" s="90"/>
       <c r="B26" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="203" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="204"/>
+        <v>64</v>
+      </c>
+      <c r="C26" s="205" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="205"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="206"/>
     </row>
     <row r="27" spans="1:7" ht="18.75">
       <c r="A27" s="90"/>
       <c r="B27" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="203" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="204"/>
+        <v>66</v>
+      </c>
+      <c r="C27" s="205" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="206"/>
     </row>
     <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="90"/>
       <c r="B28" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="203" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="203"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
+        <v>50</v>
+      </c>
+      <c r="C28" s="205" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="205"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="206"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
       <c r="A29" s="90"/>
@@ -8603,10 +8574,10 @@
       <c r="A32" s="93">
         <v>3</v>
       </c>
-      <c r="B32" s="208" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="208"/>
+      <c r="B32" s="210" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="210"/>
       <c r="D32" s="82"/>
       <c r="E32" s="82"/>
       <c r="F32" s="91"/>
@@ -8638,38 +8609,38 @@
     <row r="36" spans="1:6" ht="18.75">
       <c r="A36" s="90"/>
       <c r="B36" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="203" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="203"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="204"/>
+        <v>76</v>
+      </c>
+      <c r="C36" s="205" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="205"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="206"/>
     </row>
     <row r="37" spans="1:6" ht="18.75">
       <c r="A37" s="90"/>
       <c r="B37" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="203" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="203"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="204"/>
+        <v>78</v>
+      </c>
+      <c r="C37" s="205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="205"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="206"/>
     </row>
     <row r="38" spans="1:6" ht="18.75">
       <c r="A38" s="90"/>
       <c r="B38" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="203" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="203"/>
-      <c r="E38" s="203"/>
-      <c r="F38" s="204"/>
+        <v>79</v>
+      </c>
+      <c r="C38" s="205" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="205"/>
+      <c r="E38" s="205"/>
+      <c r="F38" s="206"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="95"/>
